--- a/Excel Assignments/3 Class assignments/Student Employment.xlsx
+++ b/Excel Assignments/3 Class assignments/Student Employment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a23cd6fa598b0da/Desktop/Aptech Assignments/3 Class assignments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a23cd6fa598b0da/Desktop/Aptech Assignments/Excel Assignments/3 Class assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B863BC36-A306-4985-95F4-3C96D6DBCF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{B863BC36-A306-4985-95F4-3C96D6DBCF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13ADBBE8-CB83-4DC7-81FF-154F9A5651DB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2FE86A9A-9A5D-498F-8250-0FFED2DB9144}"/>
   </bookViews>
@@ -617,7 +617,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -630,6 +630,7 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1041,13 +1042,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -1749,10 +1750,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>690</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>310</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2211,13 +2212,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>264</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>276</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>460</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14275,6 +14276,167 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9FEEAD1E-68D7-4359-83C1-7ED9A0015253}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Student grade" fld="5" subtotal="count" baseField="5" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C90D8275-AF67-4BFB-ABCA-8133B7F3BE2F}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A18:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Salary Status" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B872CE85-0F2D-4F72-9389-B93C9DC42539}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A12:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -14369,180 +14531,21 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9FEEAD1E-68D7-4359-83C1-7ED9A0015253}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Student grade" fld="5" subtotal="count" baseField="5" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C90D8275-AF67-4BFB-ABCA-8133B7F3BE2F}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A18:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Salary Status" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Internships" xr10:uid="{801415E4-C6FB-4F1D-909E-A5D87851B348}" sourceName="Internships">
   <pivotTables>
     <pivotTable tabId="2" name="PivotTable1"/>
+    <pivotTable tabId="2" name="PivotTable3"/>
+    <pivotTable tabId="2" name="PivotTable4"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1041047857">
       <items count="5">
         <i x="1"/>
         <i x="4"/>
-        <i x="2" s="1"/>
+        <i x="2"/>
         <i x="0"/>
-        <i x="3"/>
+        <i x="3" s="1"/>
       </items>
     </tabular>
   </data>
@@ -14877,8 +14880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F271C62-64A3-4D06-B217-092EE6707C4E}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15626,13 +15629,13 @@
   <dimension ref="A3:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B9"/>
+      <selection activeCell="A18" activeCellId="2" sqref="A3:B8 A12:B15 A18:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -15649,31 +15652,31 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>80</v>
+      <c r="B4" s="6">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>40</v>
+      <c r="B5" s="6">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>44</v>
+      <c r="B6" s="6">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>4</v>
       </c>
     </row>
@@ -15681,8 +15684,8 @@
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>168</v>
+      <c r="B8" s="6">
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -15697,24 +15700,24 @@
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>690</v>
+      <c r="B13" s="6">
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>310</v>
+      <c r="B14" s="6">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>1000</v>
+      <c r="B15" s="6">
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -15729,32 +15732,32 @@
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>264</v>
+      <c r="B19" s="6">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>276</v>
+      <c r="B20" s="6">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>460</v>
+      <c r="B21" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B22">
-        <v>1000</v>
+      <c r="B22" s="6">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -15767,7 +15770,7 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Assignments/3 Class assignments/Student Employment.xlsx
+++ b/Excel Assignments/3 Class assignments/Student Employment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a23cd6fa598b0da/Desktop/Aptech Assignments/Excel Assignments/3 Class assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{B863BC36-A306-4985-95F4-3C96D6DBCF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13ADBBE8-CB83-4DC7-81FF-154F9A5651DB}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{B863BC36-A306-4985-95F4-3C96D6DBCF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C1932DE-46AF-4FB5-865B-0391F3DA6565}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2FE86A9A-9A5D-498F-8250-0FFED2DB9144}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="26">
   <si>
     <t>Student_ID</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Students Employment Certificate</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -1017,9 +1020,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>A</c:v>
                 </c:pt>
@@ -1032,26 +1035,32 @@
                 <c:pt idx="3">
                   <c:v>C</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fail</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:f>Sheet1!$B$4:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1750,10 +1759,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>142</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2212,13 +2221,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14276,92 +14285,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9FEEAD1E-68D7-4359-83C1-7ED9A0015253}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Student grade" fld="5" subtotal="count" baseField="5" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C90D8275-AF67-4BFB-ABCA-8133B7F3BE2F}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A18:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -14372,8 +14295,8 @@
         <item h="1" x="1"/>
         <item h="1" x="4"/>
         <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="3"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14436,7 +14359,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B872CE85-0F2D-4F72-9389-B93C9DC42539}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A12:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -14447,8 +14370,8 @@
         <item h="1" x="1"/>
         <item h="1" x="4"/>
         <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="3"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14531,6 +14454,95 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9FEEAD1E-68D7-4359-83C1-7ED9A0015253}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Student grade" fld="5" subtotal="count" baseField="5" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Internships" xr10:uid="{801415E4-C6FB-4F1D-909E-A5D87851B348}" sourceName="Internships">
   <pivotTables>
@@ -14544,8 +14556,8 @@
         <i x="1"/>
         <i x="4"/>
         <i x="2"/>
-        <i x="0"/>
-        <i x="3" s="1"/>
+        <i x="0" s="1"/>
+        <i x="3"/>
       </items>
     </tabular>
   </data>
@@ -14880,7 +14892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F271C62-64A3-4D06-B217-092EE6707C4E}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
@@ -15653,7 +15665,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="6">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -15661,7 +15673,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="6">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -15669,7 +15681,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="6">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -15677,15 +15689,23 @@
         <v>14</v>
       </c>
       <c r="B7" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6">
-        <v>208</v>
+      <c r="B9" s="6">
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -15701,7 +15721,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="6">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -15709,7 +15729,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="6">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -15717,7 +15737,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="6">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -15733,7 +15753,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="6">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -15741,7 +15761,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="6">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -15749,7 +15769,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="6">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -15757,7 +15777,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="6">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
